--- a/定额.xlsx
+++ b/定额.xlsx
@@ -10802,7 +10802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S96"/>
+  <dimension ref="A1:S108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10814,15 +10814,15 @@
     <col width="19.3" customWidth="1" min="2" max="2"/>
     <col width="19.3" customWidth="1" min="3" max="3"/>
     <col width="19.3" customWidth="1" min="4" max="4"/>
-    <col width="21.9" customWidth="1" min="5" max="5"/>
-    <col width="19.3" customWidth="1" min="6" max="6"/>
-    <col width="21.9" customWidth="1" min="7" max="7"/>
+    <col width="14.1" customWidth="1" min="5" max="5"/>
+    <col width="14.1" customWidth="1" min="6" max="6"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="14.1" customWidth="1" min="8" max="8"/>
-    <col width="14.1" customWidth="1" min="9" max="9"/>
-    <col width="18" customWidth="1" min="10" max="10"/>
-    <col width="14.1" customWidth="1" min="11" max="11"/>
-    <col width="19.3" customWidth="1" min="12" max="12"/>
-    <col width="20.6" customWidth="1" min="13" max="13"/>
+    <col width="19.3" customWidth="1" min="9" max="9"/>
+    <col width="20.6" customWidth="1" min="10" max="10"/>
+    <col width="24.5" customWidth="1" min="11" max="11"/>
+    <col width="16.7" customWidth="1" min="12" max="12"/>
+    <col width="19.3" customWidth="1" min="13" max="13"/>
     <col width="24.5" customWidth="1" min="14" max="14"/>
     <col width="14.1" customWidth="1" min="15" max="15"/>
     <col width="16.7" customWidth="1" min="16" max="16"/>
@@ -13076,7 +13076,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>总装 (ZZ1)</t>
+          <t>总装1 (ZZ1)</t>
         </is>
       </c>
     </row>
@@ -13088,414 +13088,484 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
+          <t>Y2后装
+(Y2HZ)</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>YVF后装
+(YVFHZ)</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>YEJ后装
+(YEJHZ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="inlineStr">
+        <is>
+          <t>63 (63)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="inlineStr">
+        <is>
+          <t>71 (71)</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="inlineStr">
+        <is>
+          <t>80 (80)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="inlineStr">
+        <is>
+          <t>90 (90)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D92" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="inlineStr">
+        <is>
+          <t>100 (100)</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D93" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="inlineStr">
+        <is>
+          <t>112 (112)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="inlineStr">
+        <is>
+          <t>112(拉伸机座) (112-1)</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="inlineStr">
+        <is>
+          <t>132 (132)</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>总装 (ZZa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100" ht="30" customHeight="1">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>型号</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
           <t>转子清洗
 (ZZQX)</t>
         </is>
       </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>Y2后装
-(Y2HZ)</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>转子喷漆
 (ZZPQ)</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>YVF后装
-(YVFHZ)</t>
-        </is>
-      </c>
-      <c r="F88" s="3" t="inlineStr">
+      <c r="D100" s="3" t="inlineStr">
         <is>
           <t>预烘定子
 (YHDZ)</t>
         </is>
       </c>
-      <c r="G88" s="3" t="inlineStr">
-        <is>
-          <t>YEJ后装
-(YEJHZ)</t>
-        </is>
-      </c>
-      <c r="H88" s="3" t="inlineStr">
+      <c r="E100" s="3" t="inlineStr">
         <is>
           <t>浸漆
 (JQ)</t>
         </is>
       </c>
-      <c r="I88" s="3" t="inlineStr">
+      <c r="F100" s="3" t="inlineStr">
         <is>
           <t>烘漆
 (HQ)</t>
         </is>
       </c>
-      <c r="J88" s="3" t="inlineStr">
+      <c r="G100" s="3" t="inlineStr">
         <is>
           <t>锉定子
 (CDZ1)</t>
         </is>
       </c>
-      <c r="K88" s="3" t="inlineStr">
+      <c r="H100" s="3" t="inlineStr">
         <is>
           <t>热套
 (RT)</t>
         </is>
       </c>
-      <c r="L88" s="3" t="inlineStr">
+      <c r="I100" s="3" t="inlineStr">
         <is>
           <t>钻孔上丝
 (ZKSS)</t>
         </is>
       </c>
-      <c r="M88" s="3" t="inlineStr">
+      <c r="J100" s="3" t="inlineStr">
         <is>
           <t>总装合计
 (ZZHJ1)</t>
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="4" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
         <is>
           <t>63 (63)</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B101" t="n">
         <v>0.1</v>
       </c>
-      <c r="C89" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D89" t="n">
+      <c r="C101" t="n">
         <v>0.1</v>
       </c>
-      <c r="E89" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="D101" t="n">
         <v>0.06</v>
       </c>
-      <c r="G89" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H89" t="n">
+      <c r="E101" t="n">
         <v>0.23</v>
       </c>
-      <c r="I89" t="n">
+      <c r="F101" t="n">
         <v>0.06</v>
       </c>
-      <c r="J89" t="n">
+      <c r="G101" t="n">
         <v>0.31</v>
       </c>
-      <c r="K89" t="n">
+      <c r="H101" t="n">
         <v>0.26</v>
       </c>
-      <c r="L89" t="n">
+      <c r="I101" t="n">
         <v>0.09</v>
       </c>
-      <c r="M89" t="n">
+      <c r="J101" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="4" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
         <is>
           <t>71 (71)</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B102" t="n">
         <v>0.1</v>
       </c>
-      <c r="C90" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="D90" t="n">
+      <c r="C102" t="n">
         <v>0.1</v>
       </c>
-      <c r="E90" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="F90" t="n">
+      <c r="D102" t="n">
         <v>0.06</v>
       </c>
-      <c r="G90" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="H90" t="n">
+      <c r="E102" t="n">
         <v>0.23</v>
       </c>
-      <c r="I90" t="n">
+      <c r="F102" t="n">
         <v>0.06</v>
       </c>
-      <c r="J90" t="n">
+      <c r="G102" t="n">
         <v>0.31</v>
       </c>
-      <c r="K90" t="n">
+      <c r="H102" t="n">
         <v>0.26</v>
       </c>
-      <c r="L90" t="n">
+      <c r="I102" t="n">
         <v>0.09</v>
       </c>
-      <c r="M90" t="n">
+      <c r="J102" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="4" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
         <is>
           <t>80 (80)</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B103" t="n">
         <v>0.1</v>
       </c>
-      <c r="C91" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C103" t="n">
         <v>0.1</v>
       </c>
-      <c r="E91" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="D103" t="n">
         <v>0.06</v>
       </c>
-      <c r="G91" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H91" t="n">
+      <c r="E103" t="n">
         <v>0.26</v>
       </c>
-      <c r="I91" t="n">
+      <c r="F103" t="n">
         <v>0.06</v>
       </c>
-      <c r="J91" t="n">
+      <c r="G103" t="n">
         <v>0.34</v>
       </c>
-      <c r="K91" t="n">
+      <c r="H103" t="n">
         <v>0.28</v>
       </c>
-      <c r="L91" t="n">
+      <c r="I103" t="n">
         <v>0.09</v>
       </c>
-      <c r="M91" t="n">
+      <c r="J103" t="n">
         <v>1.29</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="4" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
         <is>
           <t>90 (90)</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B104" t="n">
         <v>0.11</v>
       </c>
-      <c r="C92" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="D92" t="n">
+      <c r="C104" t="n">
         <v>0.11</v>
       </c>
-      <c r="E92" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="F92" t="n">
+      <c r="D104" t="n">
         <v>0.11</v>
       </c>
-      <c r="G92" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H92" t="n">
+      <c r="E104" t="n">
         <v>0.34</v>
       </c>
-      <c r="I92" t="n">
+      <c r="F104" t="n">
         <v>0.11</v>
       </c>
-      <c r="J92" t="n">
+      <c r="G104" t="n">
         <v>0.36</v>
       </c>
-      <c r="K92" t="n">
+      <c r="H104" t="n">
         <v>0.31</v>
       </c>
-      <c r="L92" t="n">
+      <c r="I104" t="n">
         <v>0.09</v>
       </c>
-      <c r="M92" t="n">
+      <c r="J104" t="n">
         <v>1.56</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="4" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
         <is>
           <t>100 (100)</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B105" t="n">
         <v>0.13</v>
       </c>
-      <c r="C93" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D93" t="n">
+      <c r="C105" t="n">
         <v>0.13</v>
       </c>
-      <c r="E93" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="F93" t="n">
+      <c r="D105" t="n">
         <v>0.14</v>
       </c>
-      <c r="G93" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="H93" t="n">
+      <c r="E105" t="n">
         <v>0.37</v>
       </c>
-      <c r="I93" t="n">
+      <c r="F105" t="n">
         <v>0.14</v>
       </c>
-      <c r="J93" t="n">
+      <c r="G105" t="n">
         <v>0.39</v>
       </c>
-      <c r="K93" t="n">
+      <c r="H105" t="n">
         <v>0.34</v>
       </c>
-      <c r="L93" t="n">
+      <c r="I105" t="n">
         <v>0.09</v>
       </c>
-      <c r="M93" t="n">
+      <c r="J105" t="n">
         <v>1.72</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="4" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
         <is>
           <t>112 (112)</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B106" t="n">
         <v>0.14</v>
       </c>
-      <c r="C94" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="D94" t="n">
+      <c r="C106" t="n">
         <v>0.14</v>
       </c>
-      <c r="E94" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="F94" t="n">
+      <c r="D106" t="n">
         <v>0.16</v>
       </c>
-      <c r="G94" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="H94" t="n">
+      <c r="E106" t="n">
         <v>0.68</v>
       </c>
-      <c r="I94" t="n">
+      <c r="F106" t="n">
         <v>0.16</v>
       </c>
-      <c r="J94" t="n">
+      <c r="G106" t="n">
         <v>0.52</v>
       </c>
-      <c r="K94" t="n">
+      <c r="H106" t="n">
         <v>0.36</v>
       </c>
-      <c r="L94" t="n">
+      <c r="I106" t="n">
         <v>0.09</v>
       </c>
-      <c r="M94" t="n">
+      <c r="J106" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="4" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
         <is>
           <t>112(拉伸机座) (112-1)</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B107" t="n">
         <v>0.15</v>
       </c>
-      <c r="C95" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D95" t="n">
+      <c r="C107" t="n">
         <v>0.15</v>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="n">
+      <c r="D107" t="n">
         <v>0.19</v>
       </c>
-      <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
+      <c r="E107" t="n">
         <v>0.68</v>
       </c>
-      <c r="I95" t="n">
+      <c r="F107" t="n">
         <v>0.16</v>
       </c>
-      <c r="J95" t="n">
+      <c r="G107" t="n">
         <v>0</v>
       </c>
-      <c r="K95" t="n">
+      <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="L95" t="n">
+      <c r="I107" t="n">
         <v>0.1</v>
       </c>
-      <c r="M95" t="n">
+      <c r="J107" t="n">
         <v>1.43</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="4" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
         <is>
           <t>132 (132)</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B108" t="n">
         <v>0.18</v>
       </c>
-      <c r="C96" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D96" t="n">
+      <c r="C108" t="n">
         <v>0.18</v>
       </c>
-      <c r="E96" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="F96" t="n">
+      <c r="D108" t="n">
         <v>0.23</v>
       </c>
-      <c r="G96" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="H96" t="n">
+      <c r="E108" t="n">
         <v>1.13</v>
       </c>
-      <c r="I96" t="n">
+      <c r="F108" t="n">
         <v>0.23</v>
       </c>
-      <c r="J96" t="n">
+      <c r="G108" t="n">
         <v>0.65</v>
       </c>
-      <c r="K96" t="n">
+      <c r="H108" t="n">
         <v>0.52</v>
       </c>
-      <c r="L96" t="n">
+      <c r="I108" t="n">
         <v>0.09</v>
       </c>
-      <c r="M96" t="n">
+      <c r="J108" t="n">
         <v>3.2</v>
       </c>
     </row>
@@ -18647,7 +18717,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>总装(铁) (ZZT1)</t>
+          <t>总装(铁) (ZZTa)</t>
         </is>
       </c>
     </row>
@@ -22620,17 +22690,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28.4" customWidth="1" min="1" max="1"/>
-    <col width="21.9" customWidth="1" min="2" max="2"/>
+    <col width="23.2" customWidth="1" min="1" max="1"/>
+    <col width="19.3" customWidth="1" min="2" max="2"/>
     <col width="19.3" customWidth="1" min="3" max="3"/>
-    <col width="21.9" customWidth="1" min="4" max="4"/>
-    <col width="16.7" customWidth="1" min="5" max="5"/>
-    <col width="19.3" customWidth="1" min="6" max="6"/>
+    <col width="28.4" customWidth="1" min="4" max="4"/>
+    <col width="28.4" customWidth="1" min="5" max="5"/>
+    <col width="21.9" customWidth="1" min="6" max="6"/>
     <col width="19.3" customWidth="1" min="7" max="7"/>
-    <col width="16.7" customWidth="1" min="8" max="8"/>
+    <col width="28.4" customWidth="1" min="8" max="8"/>
     <col width="19.3" customWidth="1" min="9" max="9"/>
-    <col width="24.5" customWidth="1" min="10" max="10"/>
-    <col width="21.9" customWidth="1" min="11" max="11"/>
+    <col width="16.7" customWidth="1" min="10" max="10"/>
+    <col width="14.1" customWidth="1" min="11" max="11"/>
     <col width="20.6" customWidth="1" min="12" max="12"/>
     <col width="19.3" customWidth="1" min="13" max="13"/>
     <col width="21.9" customWidth="1" min="14" max="14"/>
@@ -24563,7 +24633,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>总装 (ZZ1)</t>
+          <t>中装(铁) (ZZT)</t>
         </is>
       </c>
     </row>
@@ -24575,539 +24645,586 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
+          <t>压轴承手工
+(YZCSG)</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>前后卡簧
+(QHKH)</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>清洗端盖只
+(QXDGZ)</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>装油封
+(ZYF)</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="inlineStr">
+        <is>
+          <t>清理定子
+(QLDZ)</t>
+        </is>
+      </c>
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>上前端盖
+(SQDG)</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="inlineStr">
+        <is>
+          <t>装转子
+(ZZZ)</t>
+        </is>
+      </c>
+      <c r="I52" s="3" t="inlineStr">
+        <is>
+          <t>上后端盖
+(SHDG)</t>
+        </is>
+      </c>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>电机上试验台
+(DJSSYT)</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr">
+        <is>
+          <t>中装铁合计
+(ZZTHJ)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="inlineStr">
+        <is>
+          <t>63 (63)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>71 (71)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>80 (80)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="inlineStr">
+        <is>
+          <t>90 (90)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>TMB100BJ5 (100-22)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>总装 (ZZa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="30" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>型号</t>
+        </is>
+      </c>
+      <c r="B61" s="3" t="inlineStr">
+        <is>
           <t>转子清洗
 (ZZQX)</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>转子喷漆
 (ZZPQ)</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>预烘定子
 (YHDZ)</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>浸漆
 (JQ)</t>
         </is>
       </c>
-      <c r="F52" s="3" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>烘漆
 (HQ)</t>
         </is>
       </c>
-      <c r="G52" s="3" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>锉定子
 (CDZ1)</t>
         </is>
       </c>
-      <c r="H52" s="3" t="inlineStr">
+      <c r="H61" s="3" t="inlineStr">
         <is>
           <t>铸铁机座压壳
 (ZTJZYK)</t>
         </is>
       </c>
-      <c r="I52" s="3" t="inlineStr">
+      <c r="I61" s="3" t="inlineStr">
         <is>
           <t>钻孔上丝
 (ZKSS)</t>
         </is>
       </c>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="J61" s="3" t="inlineStr">
         <is>
           <t>粘磁钢
 (ZCG)</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr">
+      <c r="K61" s="3" t="inlineStr">
         <is>
           <t>封胶
 (FJ)</t>
         </is>
       </c>
-      <c r="L52" s="3" t="inlineStr">
+      <c r="L61" s="3" t="inlineStr">
         <is>
           <t>总装合计
 (ZZHJ1)</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>63 (63)</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B62" t="n">
         <v>0.22</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C62" t="n">
         <v>0.15</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D62" t="n">
         <v>0.08</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E62" t="n">
         <v>0.23</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F62" t="n">
         <v>0.06</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G62" t="n">
         <v>0.34</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H62" t="n">
         <v>0.44</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I62" t="n">
         <v>0.11</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J62" t="n">
         <v>1.8</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K62" t="n">
         <v>0.9</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L62" t="n">
         <v>4.32</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="4" t="inlineStr">
         <is>
           <t>71 (71)</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B63" t="n">
         <v>0.25</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C63" t="n">
         <v>0.2</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D63" t="n">
         <v>0.08</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E63" t="n">
         <v>0.23</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F63" t="n">
         <v>0.06</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G63" t="n">
         <v>0.34</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H63" t="n">
         <v>0.5</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I63" t="n">
         <v>0.11</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J63" t="n">
         <v>2</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K63" t="n">
         <v>0.9</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L63" t="n">
         <v>4.66</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="4" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>80 (80)</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B64" t="n">
         <v>0.28</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C64" t="n">
         <v>0.2</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D64" t="n">
         <v>0.08</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E64" t="n">
         <v>0.26</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F64" t="n">
         <v>0.06</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G64" t="n">
         <v>0.37</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H64" t="n">
         <v>0.53</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I64" t="n">
         <v>0.11</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J64" t="n">
         <v>2.1</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K64" t="n">
         <v>1</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L64" t="n">
         <v>4.98</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="4" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>90 (90)</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B65" t="n">
         <v>0.3</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C65" t="n">
         <v>0.23</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D65" t="n">
         <v>0.13</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E65" t="n">
         <v>0.34</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F65" t="n">
         <v>0.11</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G65" t="n">
         <v>0.4</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H65" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I65" t="n">
         <v>0.11</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J65" t="n">
         <v>2.17</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K65" t="n">
         <v>1.1</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L65" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>TMB100 (998-1)</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B66" t="n">
         <v>0.35</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C66" t="n">
         <v>0.25</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D66" t="n">
         <v>0.16</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E66" t="n">
         <v>0.37</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F66" t="n">
         <v>0.14</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G66" t="n">
         <v>0.43</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H66" t="n">
         <v>1.25</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I66" t="n">
         <v>0.2</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J66" t="n">
         <v>3</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K66" t="n">
         <v>1.2</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L66" t="n">
         <v>7.34</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>转子 (ZZ2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="30" customHeight="1">
-      <c r="A61" s="2" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>转子 (ZZb)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70" ht="30" customHeight="1">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>型号</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>转子压轴
 (ZZYZ)</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>磨轴外圆
 (MZWY)</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>转子车外圆:微机
 (ZZCWYWJ)</t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>转子车外圆:普通
 (ZZCWYPT)</t>
         </is>
       </c>
-      <c r="F61" s="3" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>转子校平衡
 (ZZXPH)</t>
         </is>
       </c>
-      <c r="G61" s="3" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>打孔攻丝
 (DKGS)</t>
         </is>
       </c>
-      <c r="H61" s="3" t="inlineStr">
+      <c r="H70" s="3" t="inlineStr">
         <is>
           <t>铣键槽:YEJ2
 (XJCYEJ2)</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="4" t="inlineStr">
-        <is>
-          <t>63 (63)</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="inlineStr">
-        <is>
-          <t>71 (71)</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="4" t="inlineStr">
-        <is>
-          <t>80 (80)</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="inlineStr">
-        <is>
-          <t>90 (90)</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>TMB100 (998-1)</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>中装(铁) (ZZT)</t>
-        </is>
-      </c>
-    </row>
-    <row r="70" ht="30" customHeight="1">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>型号</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>压轴承手工
-(YZCSG)</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>前后卡簧
-(QHKH)</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>清洗端盖只
-(QXDGZ)</t>
-        </is>
-      </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>装油封
-(ZYF)</t>
-        </is>
-      </c>
-      <c r="F70" s="3" t="inlineStr">
-        <is>
-          <t>清理定子
-(QLDZ)</t>
-        </is>
-      </c>
-      <c r="G70" s="3" t="inlineStr">
-        <is>
-          <t>上前端盖
-(SQDG)</t>
-        </is>
-      </c>
-      <c r="H70" s="3" t="inlineStr">
-        <is>
-          <t>装转子
-(ZZZ)</t>
-        </is>
-      </c>
-      <c r="I70" s="3" t="inlineStr">
-        <is>
-          <t>上后端盖
-(SHDG)</t>
-        </is>
-      </c>
-      <c r="J70" s="3" t="inlineStr">
-        <is>
-          <t>电机上试验台
-(DJSSYT)</t>
-        </is>
-      </c>
-      <c r="K70" s="3" t="inlineStr">
-        <is>
-          <t>中装铁合计
-(ZZTHJ)</t>
-        </is>
-      </c>
-    </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
@@ -25115,34 +25232,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4</v>
+        <v>0.53</v>
       </c>
       <c r="D71" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="E71" t="n">
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
       <c r="F71" t="n">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
       <c r="G71" t="n">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="H71" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2.1</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="72">
@@ -25152,34 +25260,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.3</v>
+        <v>0.19</v>
       </c>
       <c r="C72" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="E72" t="n">
-        <v>0.08</v>
+        <v>0.45</v>
       </c>
       <c r="F72" t="n">
-        <v>0.36</v>
+        <v>0.8</v>
       </c>
       <c r="G72" t="n">
-        <v>0.15</v>
+        <v>0.38</v>
       </c>
       <c r="H72" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K72" t="n">
-        <v>2.26</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="73">
@@ -25189,34 +25288,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="C73" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="D73" t="n">
-        <v>0.31</v>
+        <v>0.49</v>
       </c>
       <c r="E73" t="n">
-        <v>0.08</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.36</v>
+        <v>0.85</v>
       </c>
       <c r="G73" t="n">
-        <v>0.15</v>
+        <v>0.34</v>
       </c>
       <c r="H73" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="K73" t="n">
-        <v>2.58</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="74">
@@ -25226,71 +25316,51 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08</v>
+        <v>0.61</v>
       </c>
       <c r="F74" t="n">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>0.15</v>
+        <v>0.39</v>
       </c>
       <c r="H74" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K74" t="n">
-        <v>2.94</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
         <is>
-          <t>TMB100BJ5 (100-22)</t>
+          <t>TMB100 (998-1)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.66</v>
+        <v>0.26</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.62</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.5</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5.61</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -27913,7 +27983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:R114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27923,25 +27993,22 @@
   <cols>
     <col width="25.8" customWidth="1" min="1" max="1"/>
     <col width="19.3" customWidth="1" min="2" max="2"/>
-    <col width="16.7" customWidth="1" min="3" max="3"/>
-    <col width="21.9" customWidth="1" min="4" max="4"/>
-    <col width="19.3" customWidth="1" min="5" max="5"/>
-    <col width="16.7" customWidth="1" min="6" max="6"/>
-    <col width="27.1" customWidth="1" min="7" max="7"/>
-    <col width="25.8" customWidth="1" min="8" max="8"/>
+    <col width="19.3" customWidth="1" min="3" max="3"/>
+    <col width="25.8" customWidth="1" min="4" max="4"/>
+    <col width="25.8" customWidth="1" min="5" max="5"/>
+    <col width="28.4" customWidth="1" min="6" max="6"/>
+    <col width="28.4" customWidth="1" min="7" max="7"/>
+    <col width="21.9" customWidth="1" min="8" max="8"/>
     <col width="19.3" customWidth="1" min="9" max="9"/>
-    <col width="14.1" customWidth="1" min="10" max="10"/>
-    <col width="25.8" customWidth="1" min="11" max="11"/>
-    <col width="19.3" customWidth="1" min="12" max="12"/>
-    <col width="28.4" customWidth="1" min="13" max="13"/>
-    <col width="28.4" customWidth="1" min="14" max="14"/>
-    <col width="21.9" customWidth="1" min="15" max="15"/>
-    <col width="25.8" customWidth="1" min="16" max="16"/>
+    <col width="25.8" customWidth="1" min="10" max="10"/>
+    <col width="21.9" customWidth="1" min="11" max="11"/>
+    <col width="28.4" customWidth="1" min="12" max="12"/>
+    <col width="25.8" customWidth="1" min="13" max="13"/>
+    <col width="20.6" customWidth="1" min="14" max="14"/>
+    <col width="20.6" customWidth="1" min="15" max="15"/>
+    <col width="27.1" customWidth="1" min="16" max="16"/>
     <col width="21.9" customWidth="1" min="17" max="17"/>
-    <col width="28.4" customWidth="1" min="18" max="18"/>
-    <col width="25.8" customWidth="1" min="19" max="19"/>
-    <col width="20.6" customWidth="1" min="20" max="20"/>
-    <col width="20.6" customWidth="1" min="21" max="21"/>
+    <col width="21.9" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -29807,7 +29874,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>转子 (ZZ2)</t>
+          <t>转子1 (ZZ1a)</t>
         </is>
       </c>
     </row>
@@ -29819,856 +29886,241 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>转子压轴
-(ZZYZ)</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
           <t>车尾部
 (CWB)</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
-        <is>
-          <t>车加工1套
-(CJG1T)</t>
-        </is>
-      </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>转子热套
-(ZZRT)</t>
-        </is>
-      </c>
-      <c r="F62" s="3" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>磨尾部
 (MWB)</t>
         </is>
       </c>
-      <c r="G62" s="3" t="inlineStr">
-        <is>
-          <t>钻床含扁铁加工
-(ZCHBTJG)</t>
-        </is>
-      </c>
-      <c r="H62" s="3" t="inlineStr">
-        <is>
-          <t>磨轴外圆:自动
-(MZWYZD)</t>
-        </is>
-      </c>
-      <c r="I62" s="3" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>打孔攻丝
 (DKGS)</t>
         </is>
       </c>
-      <c r="J62" s="3" t="inlineStr">
-        <is>
-          <t>铣扁
-(XB)</t>
-        </is>
-      </c>
-      <c r="K62" s="3" t="inlineStr">
-        <is>
-          <t>磨轴外圆:手动
-(MZWYSD)</t>
-        </is>
-      </c>
-      <c r="L62" s="3" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>转子校正
 (ZZXZ)</t>
         </is>
       </c>
-      <c r="M62" s="3" t="inlineStr">
-        <is>
-          <t>转子车外圆:微机
-(ZZCWYWJ)</t>
-        </is>
-      </c>
-      <c r="N62" s="3" t="inlineStr">
-        <is>
-          <t>转子车外圆:普通
-(ZZCWYPT)</t>
-        </is>
-      </c>
-      <c r="O62" s="3" t="inlineStr">
-        <is>
-          <t>转子校平衡
-(ZZXPH)</t>
-        </is>
-      </c>
-      <c r="P62" s="3" t="inlineStr">
-        <is>
-          <t>打孔攻丝:QL
-(DKGSQL)</t>
-        </is>
-      </c>
-      <c r="Q62" s="3" t="inlineStr">
-        <is>
-          <t>磨转子外圆
-(MZZWY)</t>
-        </is>
-      </c>
-      <c r="R62" s="3" t="inlineStr">
-        <is>
-          <t>铣键槽:YEJ2
-(XJCYEJ2)</t>
-        </is>
-      </c>
-      <c r="S62" s="3" t="inlineStr">
-        <is>
-          <t>铣键槽:Y2等
-(XJCY2D)</t>
-        </is>
-      </c>
-      <c r="T62" s="3" t="inlineStr">
-        <is>
-          <t>普通:合计
-(PTHJ)</t>
-        </is>
-      </c>
-      <c r="U62" s="3" t="inlineStr">
-        <is>
-          <t>微机:合计
-(WJHJ)</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
         <is>
-          <t>63 (63)</t>
+          <t>H63 (63-7)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.31</v>
+        <v>0.35</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O63" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R63" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T63" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="U63" t="n">
-        <v>3.08</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
         <is>
-          <t>H63 (63-7)</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
+          <t>H71 (71-9)</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>0.35</v>
       </c>
-      <c r="D64" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
         <is>
-          <t>71 (71)</t>
+          <t>旭普80 (80-26)</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N65" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S65" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T65" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="U65" t="n">
-        <v>3.11</v>
-      </c>
+        <v>0.35</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
         <is>
-          <t>H71 (71-9)</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1.5</v>
-      </c>
+          <t>H90 (90-34)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
         <is>
-          <t>80 (80)</t>
+          <t>H100 (100-19)</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N67" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S67" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="T67" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="U67" t="n">
-        <v>2.54</v>
-      </c>
+      <c r="E67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
         <is>
-          <t>80调质 (80-10)</t>
+          <t>H112 (112-7)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.19</v>
+        <v>1</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N68" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S68" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T68" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="U68" t="n">
-        <v>2.65</v>
-      </c>
+      <c r="E68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
         <is>
-          <t>旭普80 (80-26)</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
-        <v>0.35</v>
-      </c>
+          <t>H132 (132-6)</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
         <is>
-          <t>H80 (80-16)</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr"/>
+          <t>H160 (160-10)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
       <c r="C70" t="inlineStr"/>
-      <c r="D70" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
         <is>
-          <t>90 (90)</t>
+          <t>H180 (180-2)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.21</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S71" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="T71" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="U71" t="n">
-        <v>2.77</v>
-      </c>
+      <c r="E71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
         <is>
-          <t>90加长 (90-14)</t>
+          <t>ANY (999)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="inlineStr">
-        <is>
-          <t>90同步 (90-16)</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="4" t="inlineStr">
-        <is>
-          <t>新吊蓝90 (90-62)</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U74" t="n">
-        <v>2.15</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="inlineStr">
-        <is>
-          <t>170转子 (90-4)</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N75" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U75" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="inlineStr">
-        <is>
-          <t>260转子 (90-7)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N76" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.85</v>
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>转子2 (ZZ2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="30" customHeight="1">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>型号</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>车加工1套
+(CJG1T)</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>钻床含扁铁加工
+(ZCHBTJG)</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>铣扁
+(XB)</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
         <is>
-          <t>AO2 3KW (90-20)</t>
+          <t>H63 (63-7)</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U77" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
         <is>
-          <t>90内置 (90-12)</t>
+          <t>H71 (71-9)</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="U78" t="n">
-        <v>2.37</v>
+        <v>1.5</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
         <is>
-          <t>KKS250 (90-36)</t>
+          <t>H80 (80-16)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U79" t="n">
-        <v>2.71</v>
+        <v>1.5</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0.65</v>
       </c>
     </row>
     <row r="80">
@@ -30677,662 +30129,462 @@
           <t>H90 (90-34)</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
+      <c r="B80" t="n">
+        <v>2.5</v>
+      </c>
       <c r="C80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D80" t="n">
         <v>0.8</v>
       </c>
-      <c r="D80" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
         <is>
-          <t>100 (100)</t>
+          <t>H100 (100-19)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="P81" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T81" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U81" t="n">
-        <v>3.07</v>
+        <v>2.5</v>
+      </c>
+      <c r="C81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
         <is>
-          <t>100油泵加长 (100-13)</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
+          <t>H112 (112-7)</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
         <is>
-          <t>100加长 (100-8)</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
+          <t>H132 (132-6)</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
         <is>
-          <t>H100 (100-19)</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>H160 (160-10)</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
       <c r="C84" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D84" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
         <is>
-          <t>112 (112)</t>
+          <t>H180 (180-2)</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>5</v>
+      </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="S85" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="T85" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="U85" t="n">
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="4" t="inlineStr">
-        <is>
-          <t>H112 (112-7)</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>1</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="inlineStr">
-        <is>
-          <t>132 (132)</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N87" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O87" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="S87" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T87" t="n">
-        <v>4.87</v>
-      </c>
-      <c r="U87" t="n">
-        <v>4.8</v>
-      </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="inlineStr">
-        <is>
-          <t>132带锥度 (132-2)</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="N88" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T88" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="U88" t="n">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="inlineStr">
-        <is>
-          <t>H132 (132-6)</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>转子 (ZZb)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89" ht="30" customHeight="1">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>型号</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>转子压轴
+(ZZYZ)</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>转子热套
+(ZZRT)</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>磨轴外圆:自动
+(MZWYZD)</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>磨轴外圆:手动
+(MZWYSD)</t>
+        </is>
+      </c>
+      <c r="F89" s="3" t="inlineStr">
+        <is>
+          <t>转子车外圆:微机
+(ZZCWYWJ)</t>
+        </is>
+      </c>
+      <c r="G89" s="3" t="inlineStr">
+        <is>
+          <t>转子车外圆:普通
+(ZZCWYPT)</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="inlineStr">
+        <is>
+          <t>转子校平衡
+(ZZXPH)</t>
+        </is>
+      </c>
+      <c r="I89" s="3" t="inlineStr">
+        <is>
+          <t>打孔攻丝
+(DKGS)</t>
+        </is>
+      </c>
+      <c r="J89" s="3" t="inlineStr">
+        <is>
+          <t>打孔攻丝:QL
+(DKGSQL)</t>
+        </is>
+      </c>
+      <c r="K89" s="3" t="inlineStr">
+        <is>
+          <t>磨转子外圆
+(MZZWY)</t>
+        </is>
+      </c>
+      <c r="L89" s="3" t="inlineStr">
+        <is>
+          <t>铣键槽:YEJ2
+(XJCYEJ2)</t>
+        </is>
+      </c>
+      <c r="M89" s="3" t="inlineStr">
+        <is>
+          <t>铣键槽:Y2等
+(XJCY2D)</t>
+        </is>
+      </c>
+      <c r="N89" s="3" t="inlineStr">
+        <is>
+          <t>普通:合计
+(PTHJ)</t>
+        </is>
+      </c>
+      <c r="O89" s="3" t="inlineStr">
+        <is>
+          <t>微机:合计
+(WJHJ)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
         <is>
-          <t>160 (160)</t>
+          <t>63 (63)</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.54</v>
+        <v>0.31</v>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
+      <c r="D90" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.52</v>
+      </c>
       <c r="H90" t="n">
-        <v>2.12</v>
+        <v>0.47</v>
       </c>
       <c r="I90" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>0.29</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.32</v>
+      </c>
       <c r="K90" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
+        <v>0.53</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.62</v>
+      </c>
       <c r="M90" t="n">
-        <v>1.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N90" t="n">
-        <v>1.7</v>
+        <v>3.13</v>
       </c>
       <c r="O90" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="P90" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S90" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="T90" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="U90" t="n">
-        <v>9.130000000000001</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
         <is>
-          <t>160带锥度 (160-7)</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+          <t>71 (71)</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.53</v>
+      </c>
       <c r="H91" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
+        <v>0.47</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O91" t="n">
+        <v>3.11</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
         <is>
-          <t>H160 (160-10)</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>80 (80)</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.19</v>
+      </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
-      </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.46</v>
+      </c>
       <c r="G92" t="n">
-        <v>5</v>
-      </c>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+        <v>0.54</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.37</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="O92" t="n">
+        <v>2.54</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
         <is>
-          <t>180 (180)</t>
+          <t>80调质 (80-10)</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
+        <v>0.19</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.54</v>
+      </c>
       <c r="H93" t="n">
-        <v>4.63</v>
+        <v>0.53</v>
       </c>
       <c r="I93" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="L93" t="inlineStr"/>
+        <v>0.38</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>0.65</v>
+      </c>
       <c r="M93" t="n">
-        <v>3.12</v>
+        <v>0.6</v>
       </c>
       <c r="N93" t="n">
-        <v>3.71</v>
+        <v>2.72</v>
       </c>
       <c r="O93" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S93" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T93" t="n">
-        <v>16.61</v>
-      </c>
-      <c r="U93" t="n">
-        <v>16.12</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
         <is>
-          <t>H180 (180-2)</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>90 (90)</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.21</v>
+      </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+        <v>0.79</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.49</v>
+      </c>
       <c r="G94" t="n">
-        <v>5</v>
-      </c>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>0.67</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.34</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O94" t="n">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
         <is>
-          <t>YEP100 (998-2)</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>90加长 (90-14)</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="n">
+        <v>0.42</v>
+      </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.39</v>
-      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>1.07</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="S95" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="T95" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="U95" t="n">
-        <v>3.46</v>
-      </c>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
         <is>
-          <t>东峻双轴伸(短) (998-5)</t>
+          <t>90同步 (90-16)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
-      <c r="C96" t="inlineStr"/>
+      <c r="C96" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="n">
-        <v>0.55</v>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -31343,70 +30595,672 @@
       <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
         <is>
-          <t>东峻双轴伸(长) (998-6)</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>新吊蓝90 (90-62)</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.19</v>
+      </c>
       <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="n">
+        <v>0.77</v>
+      </c>
       <c r="E97" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr"/>
-      <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+        <v>0.89</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.34</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>0.64</v>
+      </c>
       <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O97" t="n">
+        <v>2.15</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
         <is>
-          <t>ANY (999)</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>170转子 (90-4)</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.19</v>
+      </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
+      <c r="D98" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.34</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O98" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="inlineStr">
+        <is>
+          <t>260转子 (90-7)</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="inlineStr">
+        <is>
+          <t>AO2 3KW (90-20)</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="inlineStr">
+        <is>
+          <t>90内置 (90-12)</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="O101" t="n">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="inlineStr">
+        <is>
+          <t>KKS250 (90-36)</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C102" t="inlineStr"/>
+      <c r="D102" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="inlineStr">
+        <is>
+          <t>100 (100)</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N103" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O103" t="n">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="inlineStr">
+        <is>
+          <t>100油泵加长 (100-13)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr"/>
+      <c r="C104" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>100加长 (100-8)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="inlineStr">
+        <is>
+          <t>112 (112)</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
         <v>0.26</v>
       </c>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
+      <c r="C106" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="N106" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O106" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="inlineStr">
+        <is>
+          <t>132 (132)</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="O107" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="inlineStr">
+        <is>
+          <t>132带锥度 (132-2)</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O108" t="n">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="inlineStr">
+        <is>
+          <t>160 (160)</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N109" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="O109" t="n">
+        <v>9.130000000000001</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>160带锥度 (160-7)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="inlineStr">
+        <is>
+          <t>180 (180)</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C111" t="inlineStr"/>
+      <c r="D111" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="E111" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="F111" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G111" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N111" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="O111" t="n">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="inlineStr">
+        <is>
+          <t>YEP100 (998-2)</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O112" t="n">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="inlineStr">
+        <is>
+          <t>东峻双轴伸(短) (998-5)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr"/>
+      <c r="C113" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="inlineStr">
+        <is>
+          <t>东峻双轴伸(长) (998-6)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr"/>
+      <c r="C114" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
